--- a/MF_DELTAPRINT_DOCS/MF_DELTAPRINT_Characterization.xlsx
+++ b/MF_DELTAPRINT_DOCS/MF_DELTAPRINT_Characterization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Power-Supply" sheetId="1" r:id="rId1"/>
@@ -227,13 +227,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,8 +522,8 @@
   </sheetPr>
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,13 +552,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
@@ -633,7 +633,9 @@
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
@@ -677,7 +679,9 @@
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>11.8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -692,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +707,7 @@
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -727,40 +732,40 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
